--- a/xlsx/政策_政策_公共政策_intext.xlsx
+++ b/xlsx/政策_政策_公共政策_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>公共政策</t>
   </si>
@@ -516,186 +516,6 @@
   </si>
   <si>
     <t>en-List of public policy topics by country</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9_%D8%B9%D8%A7%D9%85%D8%A9</t>
-  </si>
-  <si>
-    <t>سياسة عامة – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Pol%C3%ADtiques_p%C3%BAbliques</t>
-  </si>
-  <si>
-    <t>Polítiques públiques – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D1%89%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Обществена политика – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://ckb.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%DB%95%D8%AA%DA%95%DB%8E%DA%98%DB%8C%DB%8C_%DA%AF%D8%B4%D8%AA%DB%8C</t>
-  </si>
-  <si>
-    <t>سیاسەتڕێژیی گشتی – 中库尔德语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Ve%C5%99ejn%C3%A1_politika</t>
-  </si>
-  <si>
-    <t>Veřejná politika – 捷克语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Polisi_cyhoeddus</t>
-  </si>
-  <si>
-    <t>Polisi cyhoeddus – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Offentlig_politik</t>
-  </si>
-  <si>
-    <t>Offentlig politik – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Public_Policy</t>
-  </si>
-  <si>
-    <t>Public Policy – 德语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Public_policy</t>
-  </si>
-  <si>
-    <t>Public policy – 英语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Pol%C3%ADticas_p%C3%BAblicas</t>
-  </si>
-  <si>
-    <t>Políticas públicas – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA%E2%80%8C%DA%AF%D8%B0%D8%A7%D8%B1%DB%8C_%D8%B9%D9%85%D9%88%D9%85%DB%8C</t>
-  </si>
-  <si>
-    <t>سیاست‌گذاری عمومی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Julkinen_valta</t>
-  </si>
-  <si>
-    <t>Julkinen valta – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Politique_publique</t>
-  </si>
-  <si>
-    <t>Politique publique – 法语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%9E%D7%93%D7%99%D7%A0%D7%99%D7%95%D7%AA_%D7%A6%D7%99%D7%91%D7%95%D7%A8%D7%99%D7%AA</t>
-  </si>
-  <si>
-    <t>מדיניות ציבורית – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B2%E0%A5%8B%E0%A4%95%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>लोकनीति – 印地语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/K%C3%B6zpolitika</t>
-  </si>
-  <si>
-    <t>Közpolitika – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Politica_pubblica</t>
-  </si>
-  <si>
-    <t>Politica pubblica – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策 – 日语</t>
-  </si>
-  <si>
-    <t>https://km.wikipedia.org/wiki/%E1%9E%82%E1%9F%84%E1%9E%9B%E1%9E%93%E1%9E%99%E1%9F%84%E1%9E%94%E1%9E%B6%E1%9E%99%E1%9E%9F%E1%9E%B6%E1%9E%92%E1%9E%B6%E1%9E%9A%E1%9E%8E%E1%9F%88</t>
-  </si>
-  <si>
-    <t>គោលនយោបាយសាធារណៈ – 高棉语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EA%B3%B5%EA%B3%B5%EC%A0%95%EC%B1%85</t>
-  </si>
-  <si>
-    <t>공공정책 – 韩语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%88%D0%B0%D0%B2%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Јавна политика – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Offentlig_politikk</t>
-  </si>
-  <si>
-    <t>Offentlig politikk – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Polityka_publiczna</t>
-  </si>
-  <si>
-    <t>Polityka publiczna – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Pol%C3%ADtica_p%C3%BAblica</t>
-  </si>
-  <si>
-    <t>Política pública – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%81%D1%83%D0%B4%D0%B0%D1%80%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D0%B0%D1%8F_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Государственная политика – 俄语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Javna_politika</t>
-  </si>
-  <si>
-    <t>Javna politika – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Patakarang_pampubliko</t>
-  </si>
-  <si>
-    <t>Patakarang pampubliko – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Kamu_politikas%C4%B1</t>
-  </si>
-  <si>
-    <t>Kamu politikası – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%94%D0%B5%D1%80%D0%B6%D0%B0%D0%B2%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D1%96%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Державна політика – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/Kong-ki%C5%8Dng_ch%C3%A8ng-chhek</t>
-  </si>
-  <si>
-    <t>Kong-kiōng chèng-chhek – Chinese (Min Nan)</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3514,876 +3334,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87</v>
-      </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91</v>
-      </c>
-      <c r="E92" t="s">
-        <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102</v>
-      </c>
-      <c r="E103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105</v>
-      </c>
-      <c r="E106" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106</v>
-      </c>
-      <c r="E107" t="s">
-        <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>110</v>
-      </c>
-      <c r="E111" t="s">
-        <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>4</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>111</v>
-      </c>
-      <c r="E112" t="s">
-        <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>4</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/政策_政策_公共政策_intext.xlsx
+++ b/xlsx/政策_政策_公共政策_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>政府部門</t>
+    <t>政府部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E8%80%85</t>
   </si>
   <si>
-    <t>競爭者</t>
+    <t>竞争者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%A8%B1%E7%B6%93%E7%87%9F%E6%AC%8A</t>
   </si>
   <si>
-    <t>特許經營權</t>
+    <t>特许经营权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>人力資源</t>
+    <t>人力资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E7%A9%BA%E4%B8%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立空中大學</t>
+    <t>国立空中大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公眾參與</t>
+    <t>公众参与</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_public_policy_topics_by_country</t>
